--- a/DatabaseUpdate/ExcelFiles/RelativeRelationships.xlsx
+++ b/DatabaseUpdate/ExcelFiles/RelativeRelationships.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -22,18 +22,27 @@
     <x:t>Name</x:t>
   </x:si>
   <x:si>
+    <x:t>MustBeMale</x:t>
+  </x:si>
+  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
     <x:t>Мать</x:t>
   </x:si>
   <x:si>
+    <x:t>False</x:t>
+  </x:si>
+  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>Отец</x:t>
   </x:si>
   <x:si>
+    <x:t>True</x:t>
+  </x:si>
+  <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
@@ -74,6 +83,9 @@
   </x:si>
   <x:si>
     <x:t>Опекун</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -424,90 +436,120 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B10"/>
+  <x:dimension ref="A1:C10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
+    </x:row>
+    <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DatabaseUpdate/ExcelFiles/RelativeRelationships.xlsx
+++ b/DatabaseUpdate/ExcelFiles/RelativeRelationships.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -86,6 +86,48 @@
   </x:si>
   <x:si>
     <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сын</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дочь</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Племянник</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Племянница</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Внук</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Внучка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Под опекой</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -436,7 +478,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C10"/>
+  <x:dimension ref="A1:C17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -552,6 +594,83 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
